--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAF4A931-E31E-4A1C-BF2B-84D342EE3DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13230" windowHeight="11430" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NganHang" sheetId="2" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -82,6 +76,54 @@
     <t>0890</t>
   </si>
   <si>
+    <t>Tài xế</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Luu Xuan Dung</t>
+  </si>
+  <si>
+    <t>0891</t>
+  </si>
+  <si>
+    <t>Ho Van Da</t>
+  </si>
+  <si>
+    <t>Nghe An</t>
+  </si>
+  <si>
+    <t>0892</t>
+  </si>
+  <si>
+    <t>Bui Long An</t>
+  </si>
+  <si>
+    <t>Quang Ngai</t>
+  </si>
+  <si>
+    <t>0893</t>
+  </si>
+  <si>
+    <t>Luu Xuan Du</t>
+  </si>
+  <si>
+    <t>0894</t>
+  </si>
+  <si>
+    <t>Ho Van Dang</t>
+  </si>
+  <si>
+    <t>0895</t>
+  </si>
+  <si>
+    <t>Bui Long Anh</t>
+  </si>
+  <si>
+    <t>0896</t>
+  </si>
+  <si>
     <t>Khách thuê xe</t>
   </si>
   <si>
@@ -142,152 +184,102 @@
     <t>0858</t>
   </si>
   <si>
-    <t>Tài xế</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Luu Xuan Dung</t>
-  </si>
-  <si>
-    <t>0891</t>
-  </si>
-  <si>
-    <t>Ho Van Da</t>
-  </si>
-  <si>
-    <t>Nghe An</t>
-  </si>
-  <si>
-    <t>0892</t>
-  </si>
-  <si>
-    <t>Bui Long An</t>
-  </si>
-  <si>
-    <t>Quang Ngai</t>
-  </si>
-  <si>
-    <t>0893</t>
-  </si>
-  <si>
-    <t>Luu Xuan Du</t>
-  </si>
-  <si>
-    <t>0894</t>
-  </si>
-  <si>
-    <t>Ho Van Dang</t>
-  </si>
-  <si>
-    <t>0895</t>
-  </si>
-  <si>
-    <t>Bui Long Anh</t>
-  </si>
-  <si>
-    <t>0896</t>
+    <t>Danh sách xe máy</t>
+  </si>
+  <si>
+    <t>Tài khoản ngân hàng của chủ xe</t>
+  </si>
+  <si>
+    <t>Hãng xe</t>
+  </si>
+  <si>
+    <t>Năm mua</t>
+  </si>
+  <si>
+    <t>Số kilomet đã đi</t>
+  </si>
+  <si>
+    <t>Bảo hiểm</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t>Giá thuê một ngày</t>
+  </si>
+  <si>
+    <t>Tiền cọc</t>
+  </si>
+  <si>
+    <t>Giá đền xức xe</t>
+  </si>
+  <si>
+    <t>Giá đền bể bánh</t>
+  </si>
+  <si>
+    <t>Giá đền hư đèn</t>
+  </si>
+  <si>
+    <t>Ưu đãi</t>
+  </si>
+  <si>
+    <t>Tăng giá</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Tập lái</t>
+  </si>
+  <si>
+    <t>Aloma</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Đám cưới</t>
+  </si>
+  <si>
+    <t>Cup2010</t>
+  </si>
+  <si>
+    <t>Xe bốn chỗ</t>
+  </si>
+  <si>
+    <t>Vinfast Fadil</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
   </si>
   <si>
     <t>Xe bảy chỗ</t>
   </si>
   <si>
-    <t>Tài khoản ngân hàng của chủ xe</t>
-  </si>
-  <si>
-    <t>Hãng xe</t>
-  </si>
-  <si>
-    <t>Năm mua</t>
-  </si>
-  <si>
-    <t>Số kilomet đã đi</t>
-  </si>
-  <si>
-    <t>Bảo hiểm</t>
-  </si>
-  <si>
-    <t>Mục đích</t>
-  </si>
-  <si>
-    <t>Giá thuê một ngày</t>
-  </si>
-  <si>
-    <t>Tiền cọc</t>
-  </si>
-  <si>
-    <t>Giá đền xức xe</t>
-  </si>
-  <si>
-    <t>Giá đền bể bánh</t>
-  </si>
-  <si>
-    <t>Giá đền hư đèn</t>
-  </si>
-  <si>
-    <t>Ưu đãi</t>
-  </si>
-  <si>
-    <t>Tăng giá</t>
-  </si>
-  <si>
-    <t>Vinfast Fadil</t>
-  </si>
-  <si>
-    <t>Có</t>
-  </si>
-  <si>
-    <t>Đám cưới</t>
-  </si>
-  <si>
     <t>KN</t>
-  </si>
-  <si>
-    <t>Xe bốn chỗ</t>
-  </si>
-  <si>
-    <t>Du lịch</t>
-  </si>
-  <si>
-    <t>Danh sách xe máy</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Không</t>
-  </si>
-  <si>
-    <t>Tập lái</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Aloma</t>
-  </si>
-  <si>
-    <t>Yamaha</t>
-  </si>
-  <si>
-    <t>Cup</t>
-  </si>
-  <si>
-    <t>Cup2010</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +287,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +451,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -324,36 +646,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -611,25 +1218,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="14.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,45 +1363,47 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="13.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="11.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="20.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -805,7 +1414,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7">
@@ -822,7 +1431,7 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4">
@@ -839,7 +1448,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4">
@@ -851,29 +1460,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="A1" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.7818181818182" customWidth="1"/>
+    <col min="4" max="4" width="16.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="24.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -887,21 +1498,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="7">
         <v>36997</v>
@@ -912,13 +1523,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <v>37595</v>
@@ -929,13 +1540,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="4">
         <v>38238</v>
@@ -946,13 +1557,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="7">
         <v>36997</v>
@@ -963,13 +1574,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="4">
         <v>37595</v>
@@ -980,13 +1591,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="4">
         <v>38238</v>
@@ -997,43 +1608,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="15.7818181818182" customWidth="1"/>
+    <col min="3" max="3" width="16.1090909090909" customWidth="1"/>
+    <col min="4" max="4" width="23.5545454545455" customWidth="1"/>
+    <col min="5" max="5" width="23.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1041,13 +1654,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="4">
         <v>38275</v>
@@ -1058,13 +1671,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="4">
         <v>38276</v>
@@ -1075,13 +1688,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="4">
         <v>38277</v>
@@ -1092,13 +1705,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="4">
         <v>38278</v>
@@ -1109,13 +1722,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="4">
         <v>38279</v>
@@ -1126,37 +1739,39 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="8.81818181818182" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.27272727272727" customWidth="1"/>
+    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1202,22 +1817,22 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4">
-        <v>45178</v>
+        <v>44441</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -1246,19 +1861,19 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4">
-        <v>44449</v>
+        <v>44442</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>500000</v>
@@ -1287,19 +1902,19 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4">
-        <v>44440</v>
+        <v>44443</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>500000</v>
@@ -1328,19 +1943,19 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4">
-        <v>44441</v>
+        <v>44444</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>500000</v>
@@ -1369,19 +1984,19 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="D7">
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G7">
         <v>500000</v>
@@ -1410,19 +2025,19 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4">
-        <v>44443</v>
+        <v>44446</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <v>500000</v>
@@ -1451,19 +2066,19 @@
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4">
-        <v>44444</v>
+        <v>44447</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>500000</v>
@@ -1492,19 +2107,19 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4">
-        <v>44445</v>
+        <v>44449</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>500000</v>
@@ -1533,19 +2148,19 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>500000</v>
@@ -1574,69 +2189,69 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4">
-        <v>44447</v>
+        <v>44938</v>
       </c>
       <c r="D12">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="H12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I12">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="J12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="K12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="L12">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="M12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4">
-        <v>44449</v>
+        <v>45062</v>
       </c>
       <c r="D13">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="H13">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I13">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="J13">
         <v>100000</v>
@@ -1645,204 +2260,42 @@
         <v>100000</v>
       </c>
       <c r="L13">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="M13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44450</v>
-      </c>
-      <c r="D14">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14">
-        <v>500000</v>
-      </c>
-      <c r="H14">
-        <v>100000</v>
-      </c>
-      <c r="I14">
-        <v>70000</v>
-      </c>
-      <c r="J14">
-        <v>100000</v>
-      </c>
-      <c r="K14">
-        <v>100000</v>
-      </c>
-      <c r="L14">
-        <v>150000</v>
-      </c>
-      <c r="M14">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44938</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15">
         <v>10000</v>
-      </c>
-      <c r="H15">
-        <v>10000</v>
-      </c>
-      <c r="I15">
-        <v>10000</v>
-      </c>
-      <c r="J15">
-        <v>10000</v>
-      </c>
-      <c r="K15">
-        <v>10000</v>
-      </c>
-      <c r="L15">
-        <v>10000</v>
-      </c>
-      <c r="M15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>123</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4">
-        <v>45062</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16">
-        <v>10000000</v>
-      </c>
-      <c r="H16">
-        <v>10000</v>
-      </c>
-      <c r="I16">
-        <v>100000</v>
-      </c>
-      <c r="J16">
-        <v>100000</v>
-      </c>
-      <c r="K16">
-        <v>100000</v>
-      </c>
-      <c r="L16">
-        <v>100000</v>
-      </c>
-      <c r="M16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="8">
-        <v>36892</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="24.6636363636364" customWidth="1"/>
+    <col min="3" max="3" width="25.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="16.7818181818182" customWidth="1"/>
+    <col min="7" max="7" width="19.5545454545455" customWidth="1"/>
+    <col min="9" max="9" width="20.1090909090909" customWidth="1"/>
+    <col min="10" max="10" width="16.8909090909091" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1891,7 +2344,7 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <v>44446</v>
@@ -1900,10 +2353,10 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>1000000</v>
@@ -1932,7 +2385,7 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>44447</v>
@@ -1941,10 +2394,10 @@
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>1000000</v>
@@ -1973,7 +2426,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4">
         <v>44448</v>
@@ -1982,10 +2435,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G5">
         <v>1000000</v>
@@ -2014,7 +2467,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4">
         <v>44449</v>
@@ -2023,10 +2476,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G6">
         <v>1000000</v>
@@ -2055,7 +2508,7 @@
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4">
         <v>44450</v>
@@ -2064,10 +2517,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>1000000</v>
@@ -2096,7 +2549,7 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4">
         <v>44451</v>
@@ -2105,10 +2558,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G8">
         <v>1000000</v>
@@ -2137,7 +2590,7 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4">
         <v>44452</v>
@@ -2146,10 +2599,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>1000000</v>
@@ -2178,7 +2631,7 @@
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4">
         <v>44453</v>
@@ -2187,10 +2640,10 @@
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>1000000</v>
@@ -2219,7 +2672,7 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4">
         <v>44454</v>
@@ -2228,10 +2681,10 @@
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G11">
         <v>1000000</v>
@@ -2260,7 +2713,7 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4">
         <v>44455</v>
@@ -2269,10 +2722,10 @@
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G12">
         <v>1000000</v>
@@ -2301,7 +2754,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4">
         <v>44456</v>
@@ -2310,10 +2763,10 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G13">
         <v>1000000</v>
@@ -2342,7 +2795,7 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4">
         <v>44457</v>
@@ -2351,10 +2804,10 @@
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G14">
         <v>1000000</v>
@@ -2383,7 +2836,7 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4">
         <v>44458</v>
@@ -2392,10 +2845,10 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G15">
         <v>1000000</v>
@@ -2424,7 +2877,7 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4">
         <v>44459</v>
@@ -2433,10 +2886,10 @@
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G16">
         <v>1000000</v>
@@ -2462,34 +2915,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.7818181818182" customWidth="1"/>
+    <col min="2" max="2" width="19.7818181818182" customWidth="1"/>
+    <col min="3" max="3" width="15.5545454545455" customWidth="1"/>
+    <col min="4" max="4" width="20.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="15.2181818181818" customWidth="1"/>
+    <col min="7" max="7" width="21.1090909090909" customWidth="1"/>
+    <col min="8" max="8" width="13.8909090909091" customWidth="1"/>
+    <col min="9" max="9" width="15.8909090909091" customWidth="1"/>
+    <col min="10" max="10" width="14.6636363636364" customWidth="1"/>
+    <col min="11" max="11" width="20.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2538,7 +2993,7 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <v>44446</v>
@@ -2547,10 +3002,10 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>2000000</v>
@@ -2579,7 +3034,7 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>44447</v>
@@ -2588,10 +3043,10 @@
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>2000000</v>
@@ -2620,7 +3075,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4">
         <v>44448</v>
@@ -2629,10 +3084,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <v>2000000</v>
@@ -2661,7 +3116,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4">
         <v>44449</v>
@@ -2670,10 +3125,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>2000000</v>
@@ -2702,7 +3157,7 @@
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4">
         <v>44450</v>
@@ -2711,10 +3166,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>2000000</v>
@@ -2743,7 +3198,7 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4">
         <v>44451</v>
@@ -2752,10 +3207,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>2000000</v>
@@ -2784,7 +3239,7 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4">
         <v>44452</v>
@@ -2793,10 +3248,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>2000000</v>
@@ -2825,7 +3280,7 @@
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4">
         <v>44453</v>
@@ -2834,10 +3289,10 @@
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>2000000</v>
@@ -2866,7 +3321,7 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4">
         <v>44454</v>
@@ -2875,10 +3330,10 @@
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G11">
         <v>2000000</v>
@@ -2907,7 +3362,7 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4">
         <v>44455</v>
@@ -2916,10 +3371,10 @@
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>2000000</v>
@@ -2948,7 +3403,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4">
         <v>44456</v>
@@ -2957,10 +3412,10 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G13">
         <v>2000000</v>
@@ -2989,7 +3444,7 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4">
         <v>44457</v>
@@ -2998,10 +3453,10 @@
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G14">
         <v>2000000</v>
@@ -3030,7 +3485,7 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4">
         <v>44458</v>
@@ -3039,10 +3494,10 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G15">
         <v>2000000</v>
@@ -3071,7 +3526,7 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4">
         <v>44459</v>
@@ -3080,10 +3535,10 @@
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G16">
         <v>2000000</v>
@@ -3109,5 +3564,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5EA1E6-1EC1-4DB1-B181-98612FA5EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13230" windowHeight="11430" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NganHang" sheetId="2" r:id="rId1"/>
@@ -14,13 +20,14 @@
     <sheet name="XeMay" sheetId="7" r:id="rId5"/>
     <sheet name="XeBonCho" sheetId="6" r:id="rId6"/>
     <sheet name="XeBayCho" sheetId="5" r:id="rId7"/>
+    <sheet name="Hợp đồng" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="90">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -241,9 +248,6 @@
     <t>Yamaha</t>
   </si>
   <si>
-    <t>Cup</t>
-  </si>
-  <si>
     <t>Có</t>
   </si>
   <si>
@@ -266,20 +270,43 @@
   </si>
   <si>
     <t>KN</t>
+  </si>
+  <si>
+    <t>Đã thuê</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Danh sách hợp đồng</t>
+  </si>
+  <si>
+    <t>Số tài khoản ngân hàng chủ xe</t>
+  </si>
+  <si>
+    <t>Số tài khoản ngân hàng khách thuê xe</t>
+  </si>
+  <si>
+    <t>Số tài khoản ngân hàng tài xế</t>
+  </si>
+  <si>
+    <t>Biển số xe</t>
+  </si>
+  <si>
+    <t>Số ngày thuê</t>
+  </si>
+  <si>
+    <t>Đúng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,151 +315,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,192 +357,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -646,321 +370,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1218,25 +662,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="14.6636363636364" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +698,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>10000000</v>
+        <v>70030000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1262,7 +706,7 @@
         <v>124</v>
       </c>
       <c r="B4">
-        <v>20000000</v>
+        <v>30010000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1278,7 +722,7 @@
         <v>126</v>
       </c>
       <c r="B6">
-        <v>40000000</v>
+        <v>28800000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1326,7 +770,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>100000000</v>
+        <v>39970000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1334,7 +778,7 @@
         <v>133</v>
       </c>
       <c r="B13">
-        <v>110000000</v>
+        <v>79990000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1363,29 +807,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="11.4454545454545" customWidth="1"/>
-    <col min="3" max="3" width="13.4454545454545" customWidth="1"/>
-    <col min="4" max="4" width="11.8909090909091" customWidth="1"/>
-    <col min="5" max="5" width="20.6636363636364" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1460,29 +902,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="16.5545454545455" customWidth="1"/>
-    <col min="3" max="3" width="18.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="16.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="24.4454545454545" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1608,29 +1048,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="15.7818181818182" customWidth="1"/>
-    <col min="3" max="3" width="16.1090909090909" customWidth="1"/>
-    <col min="4" max="4" width="23.5545454545455" customWidth="1"/>
-    <col min="5" max="5" width="23.7818181818182" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1739,42 +1177,42 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="8.81818181818182" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="8.27272727272727" customWidth="1"/>
-    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
-    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -1814,8 +1252,15 @@
       <c r="M2" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>125</v>
       </c>
@@ -1855,8 +1300,14 @@
       <c r="M3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>125</v>
       </c>
@@ -1896,8 +1347,14 @@
       <c r="M4">
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>125</v>
       </c>
@@ -1937,8 +1394,14 @@
       <c r="M5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>125</v>
       </c>
@@ -1978,8 +1441,14 @@
       <c r="M6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>125</v>
       </c>
@@ -2019,8 +1488,14 @@
       <c r="M7">
         <v>100000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>125</v>
       </c>
@@ -2060,8 +1535,14 @@
       <c r="M8">
         <v>100000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>125</v>
       </c>
@@ -2101,8 +1582,14 @@
       <c r="M9">
         <v>100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>125</v>
       </c>
@@ -2142,8 +1629,14 @@
       <c r="M10">
         <v>100000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>125</v>
       </c>
@@ -2183,122 +1676,106 @@
       <c r="M11">
         <v>100000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4">
-        <v>44938</v>
+        <v>45062</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
       <c r="G12">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="H12">
         <v>10000</v>
       </c>
       <c r="I12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="J12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="M12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="4">
-        <v>45062</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13">
-        <v>10000000</v>
-      </c>
-      <c r="H13">
-        <v>10000</v>
-      </c>
-      <c r="I13">
-        <v>100000</v>
-      </c>
-      <c r="J13">
-        <v>100000</v>
-      </c>
-      <c r="K13">
-        <v>100000</v>
-      </c>
-      <c r="L13">
-        <v>100000</v>
-      </c>
-      <c r="M13">
-        <v>10000</v>
-      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="J6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="24.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="25.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="16.7818181818182" customWidth="1"/>
-    <col min="7" max="7" width="19.5545454545455" customWidth="1"/>
-    <col min="9" max="9" width="20.1090909090909" customWidth="1"/>
-    <col min="10" max="10" width="16.8909090909091" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2338,13 +1815,20 @@
       <c r="M2" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4">
         <v>44446</v>
@@ -2353,10 +1837,10 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>1000000</v>
@@ -2379,13 +1863,20 @@
       <c r="M3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4">
         <v>44447</v>
@@ -2394,10 +1885,10 @@
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>1000000</v>
@@ -2420,13 +1911,20 @@
       <c r="M4">
         <v>200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4">
         <v>44448</v>
@@ -2435,10 +1933,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <v>1000000</v>
@@ -2461,13 +1959,20 @@
       <c r="M5">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4">
         <v>44449</v>
@@ -2476,10 +1981,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <v>1000000</v>
@@ -2502,13 +2007,20 @@
       <c r="M6">
         <v>200000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4">
         <v>44450</v>
@@ -2517,10 +2029,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <v>1000000</v>
@@ -2543,13 +2055,20 @@
       <c r="M7">
         <v>200000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4">
         <v>44451</v>
@@ -2558,10 +2077,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>1000000</v>
@@ -2584,13 +2103,20 @@
       <c r="M8">
         <v>200000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4">
         <v>44452</v>
@@ -2599,10 +2125,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9">
         <v>1000000</v>
@@ -2625,13 +2151,20 @@
       <c r="M9">
         <v>200000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4">
         <v>44453</v>
@@ -2640,10 +2173,10 @@
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10">
         <v>1000000</v>
@@ -2666,13 +2199,20 @@
       <c r="M10">
         <v>200000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4">
         <v>44454</v>
@@ -2681,10 +2221,10 @@
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>1000000</v>
@@ -2707,13 +2247,20 @@
       <c r="M11">
         <v>200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4">
         <v>44455</v>
@@ -2722,10 +2269,10 @@
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12">
         <v>1000000</v>
@@ -2748,13 +2295,20 @@
       <c r="M12">
         <v>200000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4">
         <v>44456</v>
@@ -2763,10 +2317,10 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13">
         <v>1000000</v>
@@ -2789,13 +2343,20 @@
       <c r="M13">
         <v>200000</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4">
         <v>44457</v>
@@ -2804,10 +2365,10 @@
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14">
         <v>1000000</v>
@@ -2830,13 +2391,20 @@
       <c r="M14">
         <v>200000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="4">
         <v>44458</v>
@@ -2845,10 +2413,10 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15">
         <v>1000000</v>
@@ -2871,13 +2439,20 @@
       <c r="M15">
         <v>200000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4">
         <v>44459</v>
@@ -2886,10 +2461,10 @@
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16">
         <v>1000000</v>
@@ -2912,42 +2487,47 @@
       <c r="M16">
         <v>200000</v>
       </c>
+      <c r="N16">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.7818181818182" customWidth="1"/>
-    <col min="2" max="2" width="19.7818181818182" customWidth="1"/>
-    <col min="3" max="3" width="15.5545454545455" customWidth="1"/>
-    <col min="4" max="4" width="20.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="15.2181818181818" customWidth="1"/>
-    <col min="7" max="7" width="21.1090909090909" customWidth="1"/>
-    <col min="8" max="8" width="13.8909090909091" customWidth="1"/>
-    <col min="9" max="9" width="15.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="14.6636363636364" customWidth="1"/>
-    <col min="11" max="11" width="20.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2987,13 +2567,20 @@
       <c r="M2" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4">
         <v>44446</v>
@@ -3002,10 +2589,10 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
       </c>
       <c r="G3">
         <v>2000000</v>
@@ -3028,13 +2615,19 @@
       <c r="M3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4">
         <v>44447</v>
@@ -3043,10 +2636,10 @@
         <v>160</v>
       </c>
       <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
       </c>
       <c r="G4">
         <v>2000000</v>
@@ -3069,13 +2662,19 @@
       <c r="M4">
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4">
         <v>44448</v>
@@ -3084,10 +2683,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
         <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
       </c>
       <c r="G5">
         <v>2000000</v>
@@ -3110,13 +2709,19 @@
       <c r="M5">
         <v>300000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4">
         <v>44449</v>
@@ -3125,10 +2730,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
         <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
       </c>
       <c r="G6">
         <v>2000000</v>
@@ -3151,13 +2756,19 @@
       <c r="M6">
         <v>300000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4">
         <v>44450</v>
@@ -3166,10 +2777,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
         <v>74</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
       </c>
       <c r="G7">
         <v>2000000</v>
@@ -3192,13 +2803,19 @@
       <c r="M7">
         <v>300000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4">
         <v>44451</v>
@@ -3207,10 +2824,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
         <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
       </c>
       <c r="G8">
         <v>2000000</v>
@@ -3233,13 +2850,19 @@
       <c r="M8">
         <v>300000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4">
         <v>44452</v>
@@ -3248,10 +2871,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
         <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
       </c>
       <c r="G9">
         <v>2000000</v>
@@ -3274,13 +2897,19 @@
       <c r="M9">
         <v>300000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="4">
         <v>44453</v>
@@ -3289,10 +2918,10 @@
         <v>160</v>
       </c>
       <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
       </c>
       <c r="G10">
         <v>2000000</v>
@@ -3315,13 +2944,19 @@
       <c r="M10">
         <v>300000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4">
         <v>44454</v>
@@ -3330,10 +2965,10 @@
         <v>160</v>
       </c>
       <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
         <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
       </c>
       <c r="G11">
         <v>2000000</v>
@@ -3356,13 +2991,19 @@
       <c r="M11">
         <v>300000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4">
         <v>44455</v>
@@ -3371,10 +3012,10 @@
         <v>160</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
       </c>
       <c r="G12">
         <v>2000000</v>
@@ -3397,13 +3038,19 @@
       <c r="M12">
         <v>300000</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4">
         <v>44456</v>
@@ -3412,10 +3059,10 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
         <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
       </c>
       <c r="G13">
         <v>2000000</v>
@@ -3438,13 +3085,19 @@
       <c r="M13">
         <v>300000</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4">
         <v>44457</v>
@@ -3453,10 +3106,10 @@
         <v>160</v>
       </c>
       <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
       </c>
       <c r="G14">
         <v>2000000</v>
@@ -3479,13 +3132,19 @@
       <c r="M14">
         <v>300000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="4">
         <v>44458</v>
@@ -3494,10 +3153,10 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
       </c>
       <c r="G15">
         <v>2000000</v>
@@ -3520,13 +3179,19 @@
       <c r="M15">
         <v>300000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4">
         <v>44459</v>
@@ -3535,10 +3200,10 @@
         <v>160</v>
       </c>
       <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
         <v>74</v>
-      </c>
-      <c r="F16" t="s">
-        <v>75</v>
       </c>
       <c r="G16">
         <v>2000000</v>
@@ -3561,9 +3226,61 @@
       <c r="M16">
         <v>300000</v>
       </c>
+      <c r="N16">
+        <v>38</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946095-CF3D-4733-96C6-F146D7504674}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5EA1E6-1EC1-4DB1-B181-98612FA5EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E48D4B-2521-4715-8376-61523FFF13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NganHang" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="77">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -62,27 +62,18 @@
     <t>Dak Lak</t>
   </si>
   <si>
-    <t>0889</t>
-  </si>
-  <si>
     <t>Nguyen Van An</t>
   </si>
   <si>
     <t>Gia Lai</t>
   </si>
   <si>
-    <t>0880</t>
-  </si>
-  <si>
     <t>Nguyen Van Hung</t>
   </si>
   <si>
     <t>Dak Nong</t>
   </si>
   <si>
-    <t>0890</t>
-  </si>
-  <si>
     <t>Tài xế</t>
   </si>
   <si>
@@ -92,45 +83,27 @@
     <t>Luu Xuan Dung</t>
   </si>
   <si>
-    <t>0891</t>
-  </si>
-  <si>
     <t>Ho Van Da</t>
   </si>
   <si>
     <t>Nghe An</t>
   </si>
   <si>
-    <t>0892</t>
-  </si>
-  <si>
     <t>Bui Long An</t>
   </si>
   <si>
     <t>Quang Ngai</t>
   </si>
   <si>
-    <t>0893</t>
-  </si>
-  <si>
     <t>Luu Xuan Du</t>
   </si>
   <si>
-    <t>0894</t>
-  </si>
-  <si>
     <t>Ho Van Dang</t>
   </si>
   <si>
-    <t>0895</t>
-  </si>
-  <si>
     <t>Bui Long Anh</t>
   </si>
   <si>
-    <t>0896</t>
-  </si>
-  <si>
     <t>Khách thuê xe</t>
   </si>
   <si>
@@ -152,45 +125,30 @@
     <t>Ninh Thuan</t>
   </si>
   <si>
-    <t>0854</t>
-  </si>
-  <si>
     <t>Le Ngoc Anh</t>
   </si>
   <si>
     <t>Ha Tinh</t>
   </si>
   <si>
-    <t>0855</t>
-  </si>
-  <si>
     <t>Nguyen Thai Son</t>
   </si>
   <si>
     <t>Binh Thuan</t>
   </si>
   <si>
-    <t>0856</t>
-  </si>
-  <si>
     <t>Tran Minh Quang</t>
   </si>
   <si>
     <t>Khanh Hoa</t>
   </si>
   <si>
-    <t>0857</t>
-  </si>
-  <si>
     <t>Le Xuan Nhat</t>
   </si>
   <si>
     <t>Lam Dong</t>
   </si>
   <si>
-    <t>0858</t>
-  </si>
-  <si>
     <t>Danh sách xe máy</t>
   </si>
   <si>
@@ -294,6 +252,9 @@
   </si>
   <si>
     <t>Số ngày thuê</t>
+  </si>
+  <si>
+    <t>Ngày thuê</t>
   </si>
   <si>
     <t>Đúng</t>
@@ -303,10 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +293,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -374,25 +345,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,13 +637,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -698,7 +664,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>70030000</v>
+        <v>160220000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -770,7 +736,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>39970000</v>
+        <v>9840000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -778,7 +744,7 @@
         <v>133</v>
       </c>
       <c r="B13">
-        <v>79990000</v>
+        <v>19930000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -820,11 +786,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -833,19 +799,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -856,8 +822,8 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
+      <c r="C3">
+        <v>889</v>
       </c>
       <c r="D3" s="7">
         <v>38093</v>
@@ -868,15 +834,15 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4">
+        <v>880</v>
+      </c>
+      <c r="D4" s="7">
         <v>38326</v>
       </c>
       <c r="E4">
@@ -885,15 +851,15 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>890</v>
+      </c>
+      <c r="D5" s="7">
         <v>38237</v>
       </c>
       <c r="E5">
@@ -915,16 +881,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -938,21 +904,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>891</v>
       </c>
       <c r="D3" s="7">
         <v>36997</v>
@@ -963,15 +929,15 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>892</v>
+      </c>
+      <c r="D4" s="7">
         <v>37595</v>
       </c>
       <c r="E4">
@@ -980,15 +946,15 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>893</v>
+      </c>
+      <c r="D5" s="7">
         <v>38238</v>
       </c>
       <c r="E5">
@@ -997,13 +963,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>894</v>
       </c>
       <c r="D6" s="7">
         <v>36997</v>
@@ -1014,15 +980,15 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>895</v>
+      </c>
+      <c r="D7" s="7">
         <v>37595</v>
       </c>
       <c r="E7">
@@ -1031,15 +997,15 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>896</v>
+      </c>
+      <c r="D8" s="7">
         <v>38238</v>
       </c>
       <c r="E8">
@@ -1061,30 +1027,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1092,15 +1058,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>854</v>
+      </c>
+      <c r="D3" s="7">
         <v>38275</v>
       </c>
       <c r="E3">
@@ -1109,15 +1075,15 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>855</v>
+      </c>
+      <c r="D4" s="7">
         <v>38276</v>
       </c>
       <c r="E4">
@@ -1126,15 +1092,15 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>856</v>
+      </c>
+      <c r="D5" s="7">
         <v>38277</v>
       </c>
       <c r="E5">
@@ -1143,15 +1109,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>857</v>
+      </c>
+      <c r="D6" s="7">
         <v>38278</v>
       </c>
       <c r="E6">
@@ -1160,15 +1126,15 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>858</v>
+      </c>
+      <c r="D7" s="7">
         <v>38279</v>
       </c>
       <c r="E7">
@@ -1182,102 +1148,102 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="4">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7">
         <v>44441</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -1304,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1312,19 +1278,19 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="4">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7">
         <v>44442</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>500000</v>
@@ -1351,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1359,19 +1325,19 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7">
         <v>44443</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>500000</v>
@@ -1398,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1406,19 +1372,19 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7">
         <v>44444</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>500000</v>
@@ -1445,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1453,19 +1419,19 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7">
         <v>44445</v>
       </c>
       <c r="D7">
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>500000</v>
@@ -1492,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1500,19 +1466,19 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="4">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7">
         <v>44446</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>500000</v>
@@ -1539,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1547,19 +1513,19 @@
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="4">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7">
         <v>44447</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>500000</v>
@@ -1586,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1594,19 +1560,19 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="4">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7">
         <v>44449</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>500000</v>
@@ -1633,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1641,19 +1607,19 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7">
         <v>44450</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>500000</v>
@@ -1680,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1688,19 +1654,19 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="4">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7">
         <v>45062</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>10000000</v>
@@ -1727,23 +1693,8 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="11"/>
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1760,87 +1711,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="10"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7">
         <v>44446</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>1000000</v>
@@ -1867,28 +1825,27 @@
         <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="4">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7">
         <v>44447</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>1000000</v>
@@ -1915,28 +1872,27 @@
         <v>12</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7">
         <v>44448</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>1000000</v>
@@ -1963,28 +1919,27 @@
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="4">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7">
         <v>44449</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>1000000</v>
@@ -2011,28 +1966,27 @@
         <v>14</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="4">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7">
         <v>44450</v>
       </c>
       <c r="D7">
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>1000000</v>
@@ -2059,28 +2013,27 @@
         <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="4">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7">
         <v>44451</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>1000000</v>
@@ -2107,28 +2060,27 @@
         <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="4">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7">
         <v>44452</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>1000000</v>
@@ -2155,28 +2107,27 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="4">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7">
         <v>44453</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>1000000</v>
@@ -2203,28 +2154,27 @@
         <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7">
         <v>44454</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G11">
         <v>1000000</v>
@@ -2251,28 +2201,27 @@
         <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7">
         <v>44455</v>
       </c>
       <c r="D12">
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>1000000</v>
@@ -2299,28 +2248,27 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="4">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7">
         <v>44456</v>
       </c>
       <c r="D13">
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G13">
         <v>1000000</v>
@@ -2347,28 +2295,27 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="4">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7">
         <v>44457</v>
       </c>
       <c r="D14">
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G14">
         <v>1000000</v>
@@ -2395,28 +2342,27 @@
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7">
         <v>44458</v>
       </c>
       <c r="D15">
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G15">
         <v>1000000</v>
@@ -2443,28 +2389,27 @@
         <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" s="9"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="4">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7">
         <v>44459</v>
       </c>
       <c r="D16">
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>1000000</v>
@@ -2491,9 +2436,8 @@
         <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="9"/>
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2504,95 +2448,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7">
         <v>44446</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>2000000</v>
@@ -2619,7 +2567,7 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2627,19 +2575,19 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="4">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7">
         <v>44447</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>2000000</v>
@@ -2666,7 +2614,7 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2674,19 +2622,19 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7">
         <v>44448</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>2000000</v>
@@ -2713,7 +2661,7 @@
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2721,19 +2669,19 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="4">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7">
         <v>44449</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>2000000</v>
@@ -2760,7 +2708,7 @@
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2768,19 +2716,19 @@
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="4">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7">
         <v>44450</v>
       </c>
       <c r="D7">
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>2000000</v>
@@ -2807,7 +2755,7 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2815,19 +2763,19 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="4">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7">
         <v>44451</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>2000000</v>
@@ -2854,7 +2802,7 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2862,19 +2810,19 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="4">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7">
         <v>44452</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>2000000</v>
@@ -2901,7 +2849,7 @@
         <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2909,19 +2857,19 @@
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="4">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7">
         <v>44453</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>2000000</v>
@@ -2948,7 +2896,7 @@
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2956,19 +2904,19 @@
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7">
         <v>44454</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>2000000</v>
@@ -2995,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3003,19 +2951,19 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7">
         <v>44455</v>
       </c>
       <c r="D12">
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>2000000</v>
@@ -3042,7 +2990,7 @@
         <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3050,19 +2998,19 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="4">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7">
         <v>44456</v>
       </c>
       <c r="D13">
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G13">
         <v>2000000</v>
@@ -3089,7 +3037,7 @@
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3097,19 +3045,19 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="4">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7">
         <v>44457</v>
       </c>
       <c r="D14">
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>2000000</v>
@@ -3136,7 +3084,7 @@
         <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3144,19 +3092,19 @@
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7">
         <v>44458</v>
       </c>
       <c r="D15">
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>2000000</v>
@@ -3183,7 +3131,7 @@
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3191,19 +3139,19 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="4">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7">
         <v>44459</v>
       </c>
       <c r="D16">
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <v>2000000</v>
@@ -3230,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3240,45 +3188,67 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946095-CF3D-4733-96C6-F146D7504674}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>123</v>
+      </c>
+      <c r="B3">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>36892</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E48D4B-2521-4715-8376-61523FFF13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{415F3251-1DEA-46A4-8A2F-A18957479FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Ngày thuê</t>
-  </si>
-  <si>
-    <t>Đúng</t>
   </si>
 </sst>
 </file>
@@ -664,7 +661,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>160220000</v>
+        <v>170230000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -744,7 +741,7 @@
         <v>133</v>
       </c>
       <c r="B13">
-        <v>19930000</v>
+        <v>9920000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1693,7 +1690,7 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415F3251-1DEA-46A4-8A2F-A18957479FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D07539D-EF1D-46E2-A7E2-F144A70900A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Ngày thuê</t>
+  </si>
+  <si>
+    <t>Đúng</t>
+  </si>
+  <si>
+    <t>Không có tài xế</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>30000000</v>
+        <v>31200000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -733,7 +739,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>9840000</v>
+        <v>8640000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1267,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3185,7 +3191,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946095-CF3D-4733-96C6-F146D7504674}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -3247,6 +3253,26 @@
         <v>36892</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>132</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>44927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D07539D-EF1D-46E2-A7E2-F144A70900A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA49E96-373B-4203-A6E7-1DD96179D9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Không có tài xế</t>
+  </si>
+  <si>
+    <t>Dream2018</t>
+  </si>
+  <si>
+    <t>47-U1</t>
   </si>
 </sst>
 </file>
@@ -667,7 +673,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>170230000</v>
+        <v>360420000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -683,7 +689,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>31200000</v>
+        <v>43870000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -739,7 +745,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>8640000</v>
+        <v>7970000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1151,16 +1157,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1696,6 +1702,53 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45265</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>1000000</v>
+      </c>
+      <c r="H13">
+        <v>100000</v>
+      </c>
+      <c r="I13">
+        <v>100000</v>
+      </c>
+      <c r="J13">
+        <v>100000</v>
+      </c>
+      <c r="K13">
+        <v>100000</v>
+      </c>
+      <c r="L13">
+        <v>100000</v>
+      </c>
+      <c r="M13">
+        <v>100000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" t="s">
         <v>68</v>
       </c>
     </row>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA49E96-373B-4203-A6E7-1DD96179D9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F7508A-182C-4547-8CFE-E81FDD5C9A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="80">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -673,7 +673,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>360420000</v>
+        <v>420480000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -689,7 +689,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>43870000</v>
+        <v>48670000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -745,7 +745,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>7970000</v>
+        <v>7370000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3244,10 +3244,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946095-CF3D-4733-96C6-F146D7504674}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3326,6 +3326,26 @@
         <v>44927</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>36892</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F7508A-182C-4547-8CFE-E81FDD5C9A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0F69A7-BA92-4327-9768-0EFB7EECC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="82">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>47-U1</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>DakLak</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>420480000</v>
+        <v>460520000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -689,7 +695,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>48670000</v>
+        <v>53470000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -787,7 +793,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -873,6 +879,23 @@
       </c>
       <c r="E5">
         <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>88912</v>
+      </c>
+      <c r="D6" s="7">
+        <v>37987</v>
+      </c>
+      <c r="E6">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0F69A7-BA92-4327-9768-0EFB7EECC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF13B93-C005-41F4-B030-FD7C7D2D8390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="85">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>DakLak</t>
+  </si>
+  <si>
+    <t>Tra Gia</t>
+  </si>
+  <si>
+    <t>Ho Ha</t>
+  </si>
+  <si>
+    <t>Luu Xuan Dung Danh Thu</t>
   </si>
 </sst>
 </file>
@@ -649,16 +658,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -679,7 +688,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>460520000</v>
+        <v>520580000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -695,7 +704,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>53470000</v>
+        <v>60670000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -784,6 +793,38 @@
       </c>
       <c r="B16">
         <v>140000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>12345</v>
+      </c>
+      <c r="B17">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>123142</v>
+      </c>
+      <c r="B18">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>123124</v>
+      </c>
+      <c r="B19">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2141412</v>
+      </c>
+      <c r="B20">
+        <v>1000000000</v>
       </c>
     </row>
   </sheetData>
@@ -793,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -898,6 +939,23 @@
         <v>12345</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>98142</v>
+      </c>
+      <c r="D7" s="7">
+        <v>38261</v>
+      </c>
+      <c r="E7">
+        <v>123124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -905,19 +963,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1042,6 +1100,23 @@
       </c>
       <c r="E8">
         <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>12412412</v>
+      </c>
+      <c r="D9" s="7">
+        <v>38275</v>
+      </c>
+      <c r="E9">
+        <v>123142</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -1059,7 +1134,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -1171,6 +1246,23 @@
       </c>
       <c r="E7">
         <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>12414</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44927</v>
+      </c>
+      <c r="E8">
+        <v>2141412</v>
       </c>
     </row>
   </sheetData>
@@ -3269,18 +3361,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946095-CF3D-4733-96C6-F146D7504674}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF13B93-C005-41F4-B030-FD7C7D2D8390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF56F3B-6ADD-4F6A-89BD-9D28407590AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="89">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Luu Xuan Dung Danh Thu</t>
+  </si>
+  <si>
+    <t>Long Vu</t>
+  </si>
+  <si>
+    <t>Cup2008</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>76-H1</t>
   </si>
 </sst>
 </file>
@@ -658,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -688,7 +700,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>520580000</v>
+        <v>540600000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -704,7 +716,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>60670000</v>
+        <v>63070000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -825,6 +837,14 @@
       </c>
       <c r="B20">
         <v>1000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>12314</v>
+      </c>
+      <c r="B21">
+        <v>100000000</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +854,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -843,7 +863,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
@@ -954,6 +974,23 @@
       </c>
       <c r="E7">
         <v>123124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>934214</v>
+      </c>
+      <c r="D8" s="7">
+        <v>36892</v>
+      </c>
+      <c r="E8">
+        <v>12314</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1309,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -1864,6 +1901,53 @@
         <v>79</v>
       </c>
       <c r="O13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>12314</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="7">
+        <v>37956</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <v>100000</v>
+      </c>
+      <c r="H14">
+        <v>10000</v>
+      </c>
+      <c r="I14">
+        <v>10000</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
+      <c r="K14">
+        <v>10000</v>
+      </c>
+      <c r="L14">
+        <v>10000</v>
+      </c>
+      <c r="M14">
+        <v>150000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
         <v>68</v>
       </c>
     </row>

--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF56F3B-6ADD-4F6A-89BD-9D28407590AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NganHang" sheetId="2" r:id="rId1"/>
@@ -74,6 +68,21 @@
     <t>Dak Nong</t>
   </si>
   <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>DakLak</t>
+  </si>
+  <si>
+    <t>Ho Ha</t>
+  </si>
+  <si>
+    <t>Long Vu</t>
+  </si>
+  <si>
+    <t>Quang Ngai</t>
+  </si>
+  <si>
     <t>Tài xế</t>
   </si>
   <si>
@@ -92,9 +101,6 @@
     <t>Bui Long An</t>
   </si>
   <si>
-    <t>Quang Ngai</t>
-  </si>
-  <si>
     <t>Luu Xuan Du</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
     <t>Bui Long Anh</t>
   </si>
   <si>
+    <t>Tra Gia</t>
+  </si>
+  <si>
     <t>Khách thuê xe</t>
   </si>
   <si>
@@ -149,6 +158,9 @@
     <t>Lam Dong</t>
   </si>
   <si>
+    <t>Luu Xuan Dung Danh Thu</t>
+  </si>
+  <si>
     <t>Danh sách xe máy</t>
   </si>
   <si>
@@ -191,6 +203,12 @@
     <t>Tăng giá</t>
   </si>
   <si>
+    <t>Biển số xe</t>
+  </si>
+  <si>
+    <t>Đã thuê</t>
+  </si>
+  <si>
     <t>Suzuki</t>
   </si>
   <si>
@@ -200,19 +218,43 @@
     <t>Tập lái</t>
   </si>
   <si>
+    <t>Đúng</t>
+  </si>
+  <si>
     <t>Aloma</t>
   </si>
   <si>
+    <t>Sai</t>
+  </si>
+  <si>
     <t>Yamaha</t>
   </si>
   <si>
+    <t>Cup2010</t>
+  </si>
+  <si>
     <t>Có</t>
   </si>
   <si>
     <t>Đám cưới</t>
   </si>
   <si>
-    <t>Cup2010</t>
+    <t>Dream2018</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
+  </si>
+  <si>
+    <t>47-U1</t>
+  </si>
+  <si>
+    <t>Cup2008</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>76-H1</t>
   </si>
   <si>
     <t>Xe bốn chỗ</t>
@@ -221,86 +263,44 @@
     <t>Vinfast Fadil</t>
   </si>
   <si>
-    <t>Du lịch</t>
-  </si>
-  <si>
     <t>Xe bảy chỗ</t>
   </si>
   <si>
     <t>KN</t>
   </si>
   <si>
-    <t>Đã thuê</t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
     <t>Danh sách hợp đồng</t>
   </si>
   <si>
     <t>Số tài khoản ngân hàng chủ xe</t>
   </si>
   <si>
+    <t>Số tài khoản ngân hàng tài xế</t>
+  </si>
+  <si>
     <t>Số tài khoản ngân hàng khách thuê xe</t>
   </si>
   <si>
-    <t>Số tài khoản ngân hàng tài xế</t>
-  </si>
-  <si>
-    <t>Biển số xe</t>
-  </si>
-  <si>
     <t>Số ngày thuê</t>
   </si>
   <si>
     <t>Ngày thuê</t>
   </si>
   <si>
-    <t>Đúng</t>
-  </si>
-  <si>
     <t>Không có tài xế</t>
-  </si>
-  <si>
-    <t>Dream2018</t>
-  </si>
-  <si>
-    <t>47-U1</t>
-  </si>
-  <si>
-    <t>Long An</t>
-  </si>
-  <si>
-    <t>DakLak</t>
-  </si>
-  <si>
-    <t>Tra Gia</t>
-  </si>
-  <si>
-    <t>Ho Ha</t>
-  </si>
-  <si>
-    <t>Luu Xuan Dung Danh Thu</t>
-  </si>
-  <si>
-    <t>Long Vu</t>
-  </si>
-  <si>
-    <t>Cup2008</t>
-  </si>
-  <si>
-    <t>Khác</t>
-  </si>
-  <si>
-    <t>76-H1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,34 +310,171 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,18 +495,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -377,36 +700,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -664,25 +1273,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="12.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +1309,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>540600000</v>
+        <v>566720000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -716,7 +1325,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>63070000</v>
+        <v>65470000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -772,7 +1381,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>7370000</v>
+        <v>1270000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -849,45 +1458,47 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="10.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -901,7 +1512,7 @@
       <c r="C3">
         <v>889</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>38093</v>
       </c>
       <c r="E3">
@@ -918,7 +1529,7 @@
       <c r="C4">
         <v>880</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>38326</v>
       </c>
       <c r="E4">
@@ -935,7 +1546,7 @@
       <c r="C5">
         <v>890</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>38237</v>
       </c>
       <c r="E5">
@@ -944,15 +1555,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>88912</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>37987</v>
       </c>
       <c r="E6">
@@ -961,7 +1572,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -969,7 +1580,7 @@
       <c r="C7">
         <v>98142</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>38261</v>
       </c>
       <c r="E7">
@@ -978,15 +1589,15 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>934214</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>36892</v>
       </c>
       <c r="E8">
@@ -995,29 +1606,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="11.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1027,19 +1640,19 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1047,7 +1660,7 @@
       <c r="C3">
         <v>891</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>36997</v>
       </c>
       <c r="E3">
@@ -1056,15 +1669,15 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>892</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>37595</v>
       </c>
       <c r="E4">
@@ -1073,15 +1686,15 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>893</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>38238</v>
       </c>
       <c r="E5">
@@ -1090,7 +1703,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1098,7 +1711,7 @@
       <c r="C6">
         <v>894</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>36997</v>
       </c>
       <c r="E6">
@@ -1107,15 +1720,15 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>895</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>37595</v>
       </c>
       <c r="E7">
@@ -1124,15 +1737,15 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>896</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>38238</v>
       </c>
       <c r="E8">
@@ -1141,7 +1754,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1149,7 +1762,7 @@
       <c r="C9">
         <v>12412412</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>38275</v>
       </c>
       <c r="E9">
@@ -1158,43 +1771,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="11.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1202,15 +1817,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>854</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>38275</v>
       </c>
       <c r="E3">
@@ -1219,15 +1834,15 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>855</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>38276</v>
       </c>
       <c r="E4">
@@ -1236,15 +1851,15 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>856</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>38277</v>
       </c>
       <c r="E5">
@@ -1253,15 +1868,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>857</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>38278</v>
       </c>
       <c r="E6">
@@ -1270,15 +1885,15 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>858</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>38279</v>
       </c>
       <c r="E7">
@@ -1287,7 +1902,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1295,7 +1910,7 @@
       <c r="C8">
         <v>12414</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>44927</v>
       </c>
       <c r="E8">
@@ -1304,107 +1919,109 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.27272727272727" customWidth="1"/>
+    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
+    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="7">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6">
         <v>44441</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -1431,27 +2048,27 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="7">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6">
         <v>44442</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>500000</v>
@@ -1478,27 +2095,27 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="7">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6">
         <v>44443</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>500000</v>
@@ -1525,27 +2142,27 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="7">
+        <v>66</v>
+      </c>
+      <c r="C6" s="6">
         <v>44444</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>500000</v>
@@ -1572,27 +2189,27 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="7">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6">
         <v>44445</v>
       </c>
       <c r="D7">
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>500000</v>
@@ -1619,27 +2236,27 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="7">
+        <v>68</v>
+      </c>
+      <c r="C8" s="6">
         <v>44446</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>500000</v>
@@ -1666,27 +2283,27 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="7">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6">
         <v>44447</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>500000</v>
@@ -1713,27 +2330,27 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="7">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6">
         <v>44449</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>500000</v>
@@ -1760,27 +2377,27 @@
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="7">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6">
         <v>44450</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G11">
         <v>500000</v>
@@ -1807,27 +2424,27 @@
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="7">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6">
         <v>45062</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G12">
         <v>10000000</v>
@@ -1854,27 +2471,27 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="7">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6">
         <v>45265</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G13">
         <v>1000000</v>
@@ -1898,30 +2515,30 @@
         <v>100000</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12314</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="7">
+        <v>75</v>
+      </c>
+      <c r="C14" s="6">
         <v>37956</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>100000</v>
@@ -1945,115 +2562,117 @@
         <v>150000</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
+    <col min="6" max="6" width="9.09090909090909" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
+    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
+    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="7">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6">
         <v>44446</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>1000000</v>
@@ -2080,27 +2699,27 @@
         <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="7">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6">
         <v>44447</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>1000000</v>
@@ -2127,27 +2746,27 @@
         <v>12</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="7">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6">
         <v>44448</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <v>1000000</v>
@@ -2174,27 +2793,27 @@
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="7">
+        <v>79</v>
+      </c>
+      <c r="C6" s="6">
         <v>44449</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G6">
         <v>1000000</v>
@@ -2221,27 +2840,27 @@
         <v>14</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="7">
+        <v>79</v>
+      </c>
+      <c r="C7" s="6">
         <v>44450</v>
       </c>
       <c r="D7">
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G7">
         <v>1000000</v>
@@ -2268,27 +2887,27 @@
         <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7">
+        <v>79</v>
+      </c>
+      <c r="C8" s="6">
         <v>44451</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>1000000</v>
@@ -2315,27 +2934,27 @@
         <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="C9" s="6">
         <v>44452</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <v>1000000</v>
@@ -2362,27 +2981,27 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="7">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6">
         <v>44453</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G10">
         <v>1000000</v>
@@ -2409,27 +3028,27 @@
         <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7">
+        <v>79</v>
+      </c>
+      <c r="C11" s="6">
         <v>44454</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G11">
         <v>1000000</v>
@@ -2456,27 +3075,27 @@
         <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7">
+        <v>79</v>
+      </c>
+      <c r="C12" s="6">
         <v>44455</v>
       </c>
       <c r="D12">
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G12">
         <v>1000000</v>
@@ -2503,27 +3122,27 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="7">
+        <v>79</v>
+      </c>
+      <c r="C13" s="6">
         <v>44456</v>
       </c>
       <c r="D13">
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G13">
         <v>1000000</v>
@@ -2550,27 +3169,27 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="7">
+        <v>79</v>
+      </c>
+      <c r="C14" s="6">
         <v>44457</v>
       </c>
       <c r="D14">
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G14">
         <v>1000000</v>
@@ -2597,27 +3216,27 @@
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="7">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6">
         <v>44458</v>
       </c>
       <c r="D15">
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G15">
         <v>1000000</v>
@@ -2644,27 +3263,27 @@
         <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7">
+        <v>79</v>
+      </c>
+      <c r="C16" s="6">
         <v>44459</v>
       </c>
       <c r="D16">
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G16">
         <v>1000000</v>
@@ -2691,111 +3310,114 @@
         <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
+    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
+    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="7">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6">
         <v>44446</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>2000000</v>
@@ -2822,27 +3444,27 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="7">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6">
         <v>44447</v>
       </c>
       <c r="D4">
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>2000000</v>
@@ -2869,27 +3491,27 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="7">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6">
         <v>44448</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>2000000</v>
@@ -2916,27 +3538,27 @@
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="7">
+        <v>79</v>
+      </c>
+      <c r="C6" s="6">
         <v>44449</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G6">
         <v>2000000</v>
@@ -2963,27 +3585,27 @@
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="7">
+        <v>79</v>
+      </c>
+      <c r="C7" s="6">
         <v>44450</v>
       </c>
       <c r="D7">
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>2000000</v>
@@ -3010,27 +3632,27 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7">
+        <v>79</v>
+      </c>
+      <c r="C8" s="6">
         <v>44451</v>
       </c>
       <c r="D8">
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G8">
         <v>2000000</v>
@@ -3057,27 +3679,27 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="C9" s="6">
         <v>44452</v>
       </c>
       <c r="D9">
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G9">
         <v>2000000</v>
@@ -3104,27 +3726,27 @@
         <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="7">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6">
         <v>44453</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <v>2000000</v>
@@ -3151,27 +3773,27 @@
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7">
+        <v>79</v>
+      </c>
+      <c r="C11" s="6">
         <v>44454</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <v>2000000</v>
@@ -3198,27 +3820,27 @@
         <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7">
+        <v>79</v>
+      </c>
+      <c r="C12" s="6">
         <v>44455</v>
       </c>
       <c r="D12">
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G12">
         <v>2000000</v>
@@ -3245,27 +3867,27 @@
         <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="7">
+        <v>79</v>
+      </c>
+      <c r="C13" s="6">
         <v>44456</v>
       </c>
       <c r="D13">
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>2000000</v>
@@ -3292,27 +3914,27 @@
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="7">
+        <v>79</v>
+      </c>
+      <c r="C14" s="6">
         <v>44457</v>
       </c>
       <c r="D14">
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G14">
         <v>2000000</v>
@@ -3339,27 +3961,27 @@
         <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="7">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6">
         <v>44458</v>
       </c>
       <c r="D15">
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G15">
         <v>2000000</v>
@@ -3386,27 +4008,27 @@
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="7">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6">
         <v>44459</v>
       </c>
       <c r="D16">
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G16">
         <v>2000000</v>
@@ -3433,59 +4055,61 @@
         <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29946095-CF3D-4733-96C6-F146D7504674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="27.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="35.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="9.90909090909091" customWidth="1"/>
+    <col min="5" max="5" width="12.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="9.90909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>123</v>
       </c>
@@ -3501,16 +4125,16 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>36892</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>132</v>
@@ -3521,16 +4145,16 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>44927</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>132</v>
@@ -3541,11 +4165,12 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>36892</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC282FEE-6D7B-4952-8DA7-5BAC04795E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NganHang" sheetId="2" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="91">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -272,9 +278,6 @@
     <t>Danh sách hợp đồng</t>
   </si>
   <si>
-    <t>Số tài khoản ngân hàng chủ xe</t>
-  </si>
-  <si>
     <t>Số tài khoản ngân hàng tài xế</t>
   </si>
   <si>
@@ -288,19 +291,22 @@
   </si>
   <si>
     <t>Không có tài xế</t>
+  </si>
+  <si>
+    <t>0001-01-01</t>
+  </si>
+  <si>
+    <t>Long Duong Van</t>
+  </si>
+  <si>
+    <t>Lang Son</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,152 +335,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,194 +367,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -700,322 +376,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1273,25 +662,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="12.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +698,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>566720000</v>
+        <v>727870000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1325,7 +714,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>65470000</v>
+        <v>79070000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1341,7 +730,7 @@
         <v>127</v>
       </c>
       <c r="B7">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1349,7 +738,7 @@
         <v>128</v>
       </c>
       <c r="B8">
-        <v>60000000</v>
+        <v>600000000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1357,7 +746,7 @@
         <v>129</v>
       </c>
       <c r="B9">
-        <v>70000000</v>
+        <v>700000000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1365,7 +754,7 @@
         <v>130</v>
       </c>
       <c r="B10">
-        <v>80000000</v>
+        <v>800000000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1373,7 +762,7 @@
         <v>131</v>
       </c>
       <c r="B11">
-        <v>90000000</v>
+        <v>900000000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1381,7 +770,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>1270000</v>
+        <v>124900000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1389,7 +778,7 @@
         <v>133</v>
       </c>
       <c r="B13">
-        <v>9920000</v>
+        <v>992000000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1397,7 +786,7 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>120000000</v>
+        <v>1200000000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1456,49 +845,53 @@
         <v>100000000</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>14124</v>
+      </c>
+      <c r="B22">
+        <v>10000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="10.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1606,29 +999,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="11.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1640,13 +1031,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1771,29 +1162,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="11.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1917,41 +1306,55 @@
         <v>2141412</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>12414</v>
+      </c>
+      <c r="D9" s="6">
+        <v>38664</v>
+      </c>
+      <c r="E9">
+        <v>14124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="8.27272727272727" customWidth="1"/>
-    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
-    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
-    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
-    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1963,7 +1366,7 @@
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2002,9 +1405,9 @@
       <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>125</v>
       </c>
@@ -2048,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>125</v>
       </c>
@@ -2098,7 +1501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>125</v>
       </c>
@@ -2145,7 +1548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>125</v>
       </c>
@@ -2192,7 +1595,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>125</v>
       </c>
@@ -2239,7 +1642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>125</v>
       </c>
@@ -2286,7 +1689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>125</v>
       </c>
@@ -2333,15 +1736,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="6">
-        <v>44449</v>
+      <c r="C10" t="s">
+        <v>88</v>
       </c>
       <c r="D10">
         <v>160</v>
@@ -2380,15 +1783,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="6">
-        <v>44450</v>
+      <c r="C11" t="s">
+        <v>88</v>
       </c>
       <c r="D11">
         <v>160</v>
@@ -2427,15 +1830,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="6">
-        <v>45062</v>
+      <c r="C12" t="s">
+        <v>88</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -2474,15 +1877,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="6">
-        <v>45265</v>
+      <c r="C13" t="s">
+        <v>88</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -2518,18 +1921,18 @@
         <v>74</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>12314</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="6">
-        <v>37956</v>
+      <c r="C14" t="s">
+        <v>88</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -2570,39 +1973,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="J6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
-    <col min="6" max="6" width="9.09090909090909" customWidth="1"/>
-    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
-    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
-    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
-    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
-    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2614,7 +2013,7 @@
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2653,9 +2052,9 @@
       <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>123</v>
       </c>
@@ -2702,7 +2101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>123</v>
       </c>
@@ -2749,7 +2148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>123</v>
       </c>
@@ -2796,7 +2195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>124</v>
       </c>
@@ -2843,7 +2242,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>124</v>
       </c>
@@ -2890,7 +2289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>124</v>
       </c>
@@ -2937,7 +2336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>124</v>
       </c>
@@ -2984,7 +2383,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>124</v>
       </c>
@@ -3031,7 +2430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>125</v>
       </c>
@@ -3078,7 +2477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>125</v>
       </c>
@@ -3125,7 +2524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>125</v>
       </c>
@@ -3172,7 +2571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>125</v>
       </c>
@@ -3219,7 +2618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>125</v>
       </c>
@@ -3266,7 +2665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>125</v>
       </c>
@@ -3315,39 +2714,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
-    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
-    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
-    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
-    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -3359,7 +2754,7 @@
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3398,9 +2793,9 @@
       <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>123</v>
       </c>
@@ -3447,7 +2842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>123</v>
       </c>
@@ -3494,7 +2889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>123</v>
       </c>
@@ -3541,7 +2936,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>124</v>
       </c>
@@ -3588,7 +2983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>124</v>
       </c>
@@ -3635,7 +3030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>124</v>
       </c>
@@ -3682,7 +3077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>124</v>
       </c>
@@ -3729,7 +3124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>124</v>
       </c>
@@ -3776,7 +3171,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>125</v>
       </c>
@@ -3823,7 +3218,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>125</v>
       </c>
@@ -3870,7 +3265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>125</v>
       </c>
@@ -3917,7 +3312,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>125</v>
       </c>
@@ -3964,7 +3359,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>125</v>
       </c>
@@ -4011,7 +3406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>125</v>
       </c>
@@ -4060,117 +3455,102 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="27.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="35.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="9.90909090909091" customWidth="1"/>
-    <col min="5" max="5" width="12.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="9.90909090909091" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>123</v>
-      </c>
-      <c r="B3">
-        <v>126</v>
-      </c>
-      <c r="C3">
-        <v>133</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
+      <c r="B4">
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5">
-        <v>132</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>36892</v>
+      <c r="E5" s="6">
+        <v>38011</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/DuLieu.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC282FEE-6D7B-4952-8DA7-5BAC04795E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="1692" windowWidth="17280" windowHeight="8880" tabRatio="662" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="12800" windowHeight="12030" tabRatio="662" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NganHang" sheetId="2" r:id="rId1"/>
@@ -21,13 +15,14 @@
     <sheet name="XeBonCho" sheetId="6" r:id="rId6"/>
     <sheet name="XeBayCho" sheetId="5" r:id="rId7"/>
     <sheet name="Hợp đồng" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="98">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -89,12 +84,21 @@
     <t>Quang Ngai</t>
   </si>
   <si>
+    <t>Tran Hoang Phuc</t>
+  </si>
+  <si>
+    <t>Bac Ninh</t>
+  </si>
+  <si>
     <t>Tài xế</t>
   </si>
   <si>
     <t>Ngày sinh</t>
   </si>
   <si>
+    <t>Giá thuê</t>
+  </si>
+  <si>
     <t>Luu Xuan Dung</t>
   </si>
   <si>
@@ -119,6 +123,18 @@
     <t>Tra Gia</t>
   </si>
   <si>
+    <t>Nguyen Van Tai</t>
+  </si>
+  <si>
+    <t>Ninh Thuan</t>
+  </si>
+  <si>
+    <t>Le Quoc Bao</t>
+  </si>
+  <si>
+    <t>Hung Yen</t>
+  </si>
+  <si>
     <t>Khách thuê xe</t>
   </si>
   <si>
@@ -137,9 +153,6 @@
     <t>Dang Thi Thanh Hoa</t>
   </si>
   <si>
-    <t>Ninh Thuan</t>
-  </si>
-  <si>
     <t>Le Ngoc Anh</t>
   </si>
   <si>
@@ -167,6 +180,12 @@
     <t>Luu Xuan Dung Danh Thu</t>
   </si>
   <si>
+    <t>Long Duong Van</t>
+  </si>
+  <si>
+    <t>Lang Son</t>
+  </si>
+  <si>
     <t>Danh sách xe máy</t>
   </si>
   <si>
@@ -224,27 +243,30 @@
     <t>Tập lái</t>
   </si>
   <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Aloma</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>0001-01-01</t>
+  </si>
+  <si>
+    <t>Cup2010</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Đám cưới</t>
+  </si>
+  <si>
     <t>Đúng</t>
   </si>
   <si>
-    <t>Aloma</t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
-    <t>Yamaha</t>
-  </si>
-  <si>
-    <t>Cup2010</t>
-  </si>
-  <si>
-    <t>Có</t>
-  </si>
-  <si>
-    <t>Đám cưới</t>
-  </si>
-  <si>
     <t>Dream2018</t>
   </si>
   <si>
@@ -263,6 +285,12 @@
     <t>76-H1</t>
   </si>
   <si>
+    <t>RSX</t>
+  </si>
+  <si>
+    <t>456-65</t>
+  </si>
+  <si>
     <t>Xe bốn chỗ</t>
   </si>
   <si>
@@ -288,25 +316,19 @@
   </si>
   <si>
     <t>Ngày thuê</t>
-  </si>
-  <si>
-    <t>Không có tài xế</t>
-  </si>
-  <si>
-    <t>0001-01-01</t>
-  </si>
-  <si>
-    <t>Long Duong Van</t>
-  </si>
-  <si>
-    <t>Lang Son</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +357,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,13 +518,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -367,8 +533,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -376,35 +728,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -662,34 +1300,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="12.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -698,7 +1336,7 @@
         <v>123</v>
       </c>
       <c r="B3">
-        <v>727870000</v>
+        <v>836060000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -714,7 +1352,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>79070000</v>
+        <v>93980000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -770,7 +1408,7 @@
         <v>132</v>
       </c>
       <c r="B12">
-        <v>124900000</v>
+        <v>121220000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -842,7 +1480,7 @@
         <v>12314</v>
       </c>
       <c r="B21">
-        <v>100000000</v>
+        <v>107570000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -850,30 +1488,58 @@
         <v>14124</v>
       </c>
       <c r="B22">
-        <v>10000000000</v>
+        <v>9994860000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>55555</v>
+      </c>
+      <c r="B23">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>6666666</v>
+      </c>
+      <c r="B24">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>8522</v>
+      </c>
+      <c r="B25">
+        <v>40000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="10.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -997,53 +1663,76 @@
         <v>12314</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>4152</v>
+      </c>
+      <c r="D9" s="6">
+        <v>36985</v>
+      </c>
+      <c r="E9">
+        <v>8522</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="11.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="8.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1057,13 +1746,16 @@
       <c r="E3">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>892</v>
@@ -1074,10 +1766,13 @@
       <c r="E4">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>800001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1091,10 +1786,13 @@
       <c r="E5">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>800002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1108,13 +1806,16 @@
       <c r="E6">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>800003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="C7">
         <v>895</v>
@@ -1125,10 +1826,13 @@
       <c r="E7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>800004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1142,10 +1846,13 @@
       <c r="E8">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>800005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1159,57 +1866,102 @@
       <c r="E9">
         <v>123142</v>
       </c>
+      <c r="F9">
+        <v>800006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>5444</v>
+      </c>
+      <c r="D10" s="6">
+        <v>36526</v>
+      </c>
+      <c r="E10">
+        <v>55555</v>
+      </c>
+      <c r="F10">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>456</v>
+      </c>
+      <c r="D11" s="6">
+        <v>36558</v>
+      </c>
+      <c r="E11">
+        <v>6666666</v>
+      </c>
+      <c r="F11">
+        <v>800000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="11.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>854</v>
@@ -1223,10 +1975,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>855</v>
@@ -1240,10 +1992,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>856</v>
@@ -1257,10 +2009,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>857</v>
@@ -1274,10 +2026,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>858</v>
@@ -1291,7 +2043,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1308,10 +2060,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>12414</v>
@@ -1325,94 +2077,97 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.27272727272727" customWidth="1"/>
+    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
+    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6">
         <v>44441</v>
@@ -1421,10 +2176,10 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>500000</v>
@@ -1451,15 +2206,15 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6">
         <v>44442</v>
@@ -1468,10 +2223,10 @@
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>500000</v>
@@ -1498,15 +2253,15 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6">
         <v>44443</v>
@@ -1515,10 +2270,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>500000</v>
@@ -1545,15 +2300,15 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6">
         <v>44444</v>
@@ -1562,10 +2317,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <v>500000</v>
@@ -1592,15 +2347,15 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6">
         <v>44445</v>
@@ -1609,10 +2364,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G7">
         <v>500000</v>
@@ -1639,15 +2394,15 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6">
         <v>44446</v>
@@ -1656,10 +2411,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>500000</v>
@@ -1686,15 +2441,15 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6">
         <v>44447</v>
@@ -1703,10 +2458,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G9">
         <v>500000</v>
@@ -1733,27 +2488,27 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G10">
         <v>500000</v>
@@ -1780,27 +2535,27 @@
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>500000</v>
@@ -1827,27 +2582,27 @@
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G12">
         <v>10000000</v>
@@ -1874,27 +2629,27 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>1000000</v>
@@ -1918,30 +2673,30 @@
         <v>100000</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12314</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G14">
         <v>100000</v>
@@ -1965,101 +2720,152 @@
         <v>150000</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44927</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>500000</v>
+      </c>
+      <c r="H15">
+        <v>300000</v>
+      </c>
+      <c r="I15">
+        <v>100000</v>
+      </c>
+      <c r="J15">
+        <v>150000</v>
+      </c>
+      <c r="K15">
+        <v>100000</v>
+      </c>
+      <c r="L15">
+        <v>100000</v>
+      </c>
+      <c r="M15">
+        <v>100000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
+    <col min="6" max="6" width="9.09090909090909" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
+    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
+    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6">
         <v>44446</v>
@@ -2068,10 +2874,10 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>1000000</v>
@@ -2098,15 +2904,15 @@
         <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6">
         <v>44447</v>
@@ -2115,10 +2921,10 @@
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G4">
         <v>1000000</v>
@@ -2145,15 +2951,15 @@
         <v>12</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6">
         <v>44448</v>
@@ -2162,10 +2968,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G5">
         <v>1000000</v>
@@ -2192,15 +2998,15 @@
         <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6">
         <v>44449</v>
@@ -2209,10 +3015,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G6">
         <v>1000000</v>
@@ -2239,15 +3045,15 @@
         <v>14</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C7" s="6">
         <v>44450</v>
@@ -2256,10 +3062,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <v>1000000</v>
@@ -2286,15 +3092,15 @@
         <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6">
         <v>44451</v>
@@ -2303,10 +3109,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G8">
         <v>1000000</v>
@@ -2333,15 +3139,15 @@
         <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6">
         <v>44452</v>
@@ -2350,10 +3156,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G9">
         <v>1000000</v>
@@ -2380,15 +3186,15 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6">
         <v>44453</v>
@@ -2397,10 +3203,10 @@
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G10">
         <v>1000000</v>
@@ -2427,15 +3233,15 @@
         <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6">
         <v>44454</v>
@@ -2444,10 +3250,10 @@
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G11">
         <v>1000000</v>
@@ -2474,15 +3280,15 @@
         <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6">
         <v>44455</v>
@@ -2491,10 +3297,10 @@
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G12">
         <v>1000000</v>
@@ -2521,15 +3327,15 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6">
         <v>44456</v>
@@ -2538,10 +3344,10 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>1000000</v>
@@ -2568,15 +3374,15 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C14" s="6">
         <v>44457</v>
@@ -2585,10 +3391,10 @@
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>1000000</v>
@@ -2615,15 +3421,15 @@
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6">
         <v>44458</v>
@@ -2632,10 +3438,10 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G15">
         <v>1000000</v>
@@ -2662,15 +3468,15 @@
         <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C16" s="6">
         <v>44459</v>
@@ -2679,10 +3485,10 @@
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G16">
         <v>1000000</v>
@@ -2709,98 +3515,102 @@
         <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="9.36363636363636" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="8.54545454545454" customWidth="1"/>
+    <col min="9" max="9" width="14.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="15.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="14.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="7.54545454545455" customWidth="1"/>
+    <col min="13" max="13" width="8.36363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.90909090909091" customWidth="1"/>
+    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6">
         <v>44446</v>
@@ -2809,10 +3619,10 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>2000000</v>
@@ -2839,15 +3649,15 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6">
         <v>44447</v>
@@ -2856,10 +3666,10 @@
         <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>2000000</v>
@@ -2886,15 +3696,15 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6">
         <v>44448</v>
@@ -2903,10 +3713,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G5">
         <v>2000000</v>
@@ -2933,15 +3743,15 @@
         <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6">
         <v>44449</v>
@@ -2950,10 +3760,10 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G6">
         <v>2000000</v>
@@ -2980,15 +3790,15 @@
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C7" s="6">
         <v>44450</v>
@@ -2997,10 +3807,10 @@
         <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>2000000</v>
@@ -3027,15 +3837,15 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6">
         <v>44451</v>
@@ -3044,10 +3854,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G8">
         <v>2000000</v>
@@ -3074,15 +3884,15 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6">
         <v>44452</v>
@@ -3091,10 +3901,10 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>2000000</v>
@@ -3121,15 +3931,15 @@
         <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6">
         <v>44453</v>
@@ -3138,10 +3948,10 @@
         <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>2000000</v>
@@ -3168,15 +3978,15 @@
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6">
         <v>44454</v>
@@ -3185,10 +3995,10 @@
         <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G11">
         <v>2000000</v>
@@ -3215,15 +4025,15 @@
         <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6">
         <v>44455</v>
@@ -3232,10 +4042,10 @@
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G12">
         <v>2000000</v>
@@ -3262,15 +4072,15 @@
         <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6">
         <v>44456</v>
@@ -3279,10 +4089,10 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G13">
         <v>2000000</v>
@@ -3309,15 +4119,15 @@
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C14" s="6">
         <v>44457</v>
@@ -3326,10 +4136,10 @@
         <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G14">
         <v>2000000</v>
@@ -3356,15 +4166,15 @@
         <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6">
         <v>44458</v>
@@ -3373,10 +4183,10 @@
         <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G15">
         <v>2000000</v>
@@ -3403,15 +4213,15 @@
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C16" s="6">
         <v>44459</v>
@@ -3420,10 +4230,10 @@
         <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G16">
         <v>2000000</v>
@@ -3450,56 +4260,58 @@
         <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="9.90909090909091" customWidth="1"/>
+    <col min="4" max="4" width="12.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="11.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="9.89090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>126</v>
       </c>
@@ -3516,41 +4328,58 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>87</v>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>126</v>
       </c>
       <c r="B4">
         <v>132</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>87</v>
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>126</v>
       </c>
       <c r="B5">
         <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>38011</v>
+        <v>45260</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>